--- a/進捗.xlsx
+++ b/進捗.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>人間</t>
     <rPh sb="0" eb="2">
@@ -145,6 +145,40 @@
   </si>
   <si>
     <t>一戸</t>
+  </si>
+  <si>
+    <t>Water.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toilet_Paper.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エナジードリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>便利アイテム</t>
+    <rPh sb="0" eb="2">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Energy_drink.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツドリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他オブジェクト</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -207,7 +241,56 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -526,16 +609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,9 +666,15 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G9" si="0">IF(E4&lt;&gt;"",IF(F4&lt;&gt;"","完成","未完成"),"未着手")</f>
-        <v>未着手</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -602,9 +690,12 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>未完成</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -617,9 +708,12 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>未着手</v>
+        <v>未完成</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -659,6 +753,9 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
@@ -667,32 +764,71 @@
         <v>未完成</v>
       </c>
     </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G11" si="1">IF(E10&lt;&gt;"",IF(F10&lt;&gt;"","完成","未完成"),"未着手")</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>D3="操作キャラ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>D3="障害物"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>D3="敵"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>D3="便利アイテム"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G24">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>G3="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>G3="未完成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>G3="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E10">
       <formula1>"一戸,坂口,鶴間,原田,藤田,三橋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/進捗.xlsx
+++ b/進捗.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>人間</t>
     <rPh sb="0" eb="2">
@@ -241,7 +241,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -266,49 +266,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -795,40 +753,43 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>未着手</v>
+        <v>未完成</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>D3="操作キャラ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>D3="障害物"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D3="敵"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>D3="便利アイテム"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G24">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>G3="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>G3="未完成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>G3="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11">
       <formula1>"一戸,坂口,鶴間,原田,藤田,三橋"</formula1>
     </dataValidation>
   </dataValidations>

--- a/進捗.xlsx
+++ b/進捗.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>人間</t>
     <rPh sb="0" eb="2">
@@ -117,68 +117,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵</t>
+    <t>鶴間</t>
+  </si>
+  <si>
+    <t>和式トイレ</t>
+    <rPh sb="0" eb="2">
+      <t>ワシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一戸</t>
+  </si>
+  <si>
+    <t>Water.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toilet_Paper.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エナジードリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>便利アイテム</t>
+    <rPh sb="0" eb="2">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Energy_drink.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツドリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>硬貨</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂口</t>
+  </si>
+  <si>
+    <t>壁テクスチャ</t>
     <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歩いてくる不良</t>
-    <rPh sb="0" eb="1">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>フリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鶴間</t>
-  </si>
-  <si>
-    <t>和式トイレ</t>
-    <rPh sb="0" eb="2">
-      <t>ワシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一戸</t>
-  </si>
-  <si>
-    <t>Water.x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Toilet_Paper.x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エナジードリンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>便利アイテム</t>
-    <rPh sb="0" eb="2">
-      <t>ベンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Energy_drink.x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スポーツドリンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他オブジェクト</t>
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田</t>
+  </si>
+  <si>
+    <t>教室のドア(引き戸)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三橋</t>
   </si>
 </sst>
 </file>
@@ -245,6 +271,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -267,27 +314,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -567,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,9 +635,12 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" t="str">
         <f>IF(E3&lt;&gt;"",IF(F3&lt;&gt;"","完成","未完成"),"未着手")</f>
-        <v>未着手</v>
+        <v>未完成</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -625,13 +654,13 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G9" si="0">IF(E4&lt;&gt;"",IF(F4&lt;&gt;"","完成","未完成"),"未着手")</f>
+        <f t="shared" ref="G4:G8" si="0">IF(E4&lt;&gt;"",IF(F4&lt;&gt;"","完成","未完成"),"未着手")</f>
         <v>完成</v>
       </c>
     </row>
@@ -646,10 +675,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -667,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -682,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -697,11 +726,14 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>未着手</v>
+        <v>未完成</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -709,17 +741,20 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>未完成</v>
+        <f t="shared" ref="G9:G13" si="1">IF(E9&lt;&gt;"",IF(F9&lt;&gt;"","完成","未完成"),"未着手")</f>
+        <v>完成</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -727,20 +762,17 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10:G11" si="1">IF(E10&lt;&gt;"",IF(F10&lt;&gt;"","完成","未完成"),"未着手")</f>
-        <v>完成</v>
+        <f t="shared" si="1"/>
+        <v>未完成</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -748,48 +780,84 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
         <v>未完成</v>
       </c>
     </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>未完成</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>未完成</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D3:D24">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="D3:D23">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>D3="便利アイテム"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>D3="敵"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>D3="障害物"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>D3="操作キャラ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>D3="障害物"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>D3="敵"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>D3="便利アイテム"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G24">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>G3="未着手"</formula>
+  <conditionalFormatting sqref="G3:G23">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>G3="完成"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>G3="未完成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>G3="完成"</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>G3="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13">
       <formula1>"一戸,坂口,鶴間,原田,藤田,三橋"</formula1>
     </dataValidation>
   </dataValidations>
